--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value614.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value614.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.520413008436645</v>
+        <v>0.9435272812843323</v>
       </c>
       <c r="B1">
-        <v>3.613040439001623</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.883464662813043</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.458174626441318</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.8869109702901794</v>
+        <v>1.065009355545044</v>
       </c>
     </row>
   </sheetData>
